--- a/Excel/Formatiranje celija.xlsx
+++ b/Excel/Formatiranje celija.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BILJA\DATA DIDAKTA\INFORMATIKA 8\PRIRUČNIK ZA 8\001 EXCEL\RS.8.1.3_Ресурси\RS.8.1.3_Окружење\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6915" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6912" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Упиши децимални број 25,4</t>
   </si>
@@ -106,12 +101,48 @@
   </si>
   <si>
     <t>064</t>
+  </si>
+  <si>
+    <t>Постави 2 децимале</t>
+  </si>
+  <si>
+    <t>Постави зарез као сепаратор</t>
+  </si>
+  <si>
+    <t>Додати валуту дин.</t>
+  </si>
+  <si>
+    <t>Додати валуту RSD</t>
+  </si>
+  <si>
+    <t>Приказ водеће нуле код месеца</t>
+  </si>
+  <si>
+    <t>Приказ ДАНА у недељи у датуму</t>
+  </si>
+  <si>
+    <t>Приказ без секунди</t>
+  </si>
+  <si>
+    <t>Приказ са ознаком РМ</t>
+  </si>
+  <si>
+    <t>Са ознаком процента</t>
+  </si>
+  <si>
+    <t>Са ознаком процента и 2 децимале</t>
+  </si>
+  <si>
+    <t>Текст на средини ћелије</t>
+  </si>
+  <si>
+    <t>Текст поравнат у десну страну</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
     <numFmt numFmtId="165" formatCode="d/\ m/\ yyyy;@"/>
@@ -406,7 +437,6 @@
     <xf numFmtId="21" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -428,6 +458,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,7 +565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,7 +779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -762,7 +795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -775,26 +808,26 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -806,72 +839,72 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -890,28 +923,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -924,74 +959,115 @@
       <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="13">
         <v>1225.6546000000001</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="F4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="18">
         <v>1000</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="19">
         <v>38487</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="20">
         <v>0.6347800925925926</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="21">
         <v>12</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="F9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
